--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Desktop\NUEVO CONTRATO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF29E97-A55C-45D4-B4BF-CF1406A02417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA2A45-0D60-4845-9BDF-C45D6D51403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2805" yWindow="1155" windowWidth="15000" windowHeight="12870" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -11377,8 +11377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11635,7 +11635,7 @@
         <v>29</v>
       </c>
       <c r="E6" s="4">
-        <v>54.95</v>
+        <v>54.05</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>30</v>
@@ -11650,7 +11650,7 @@
         <v>3644</v>
       </c>
       <c r="J6" s="4">
-        <v>30</v>
+        <v>30.9</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>11</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EA2A45-0D60-4845-9BDF-C45D6D51403A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F21312-77FE-4D08-9D66-431898A7C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7587" uniqueCount="3655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="3656">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11000,6 +11000,9 @@
   </si>
   <si>
     <t>Precio Promocion</t>
+  </si>
+  <si>
+    <t>WIN TV PREMIUM</t>
   </si>
 </sst>
 </file>
@@ -11377,8 +11380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12163,7 +12166,7 @@
         <v>29</v>
       </c>
       <c r="E18" s="4">
-        <v>69.900000000000006</v>
+        <v>69</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>25</v>
@@ -12175,16 +12178,16 @@
         <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>11</v>
+        <v>3655</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0.9</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>11</v>
+        <v>3639</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>11</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F21312-77FE-4D08-9D66-431898A7C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AB99A-2C06-4D0B-A2CA-0E3ACBE5725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -10993,9 +10993,6 @@
     <t>WIN 350 PROV</t>
   </si>
   <si>
-    <t>WIN 550 PROV</t>
-  </si>
-  <si>
     <t>WINTV L1 MAX</t>
   </si>
   <si>
@@ -11003,6 +11000,9 @@
   </si>
   <si>
     <t>WIN TV PREMIUM</t>
+  </si>
+  <si>
+    <t>WIN 550 PROV WINTV PREMIUN</t>
   </si>
 </sst>
 </file>
@@ -11381,7 +11381,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11412,7 +11412,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3636</v>
@@ -11562,7 +11562,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="J4" s="4">
         <v>10.9</v>
@@ -11858,7 +11858,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4">
-        <v>99</v>
+        <v>64.5</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>11</v>
@@ -11902,7 +11902,7 @@
         <v>19</v>
       </c>
       <c r="E12" s="4">
-        <v>129</v>
+        <v>79.5</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>11</v>
@@ -11946,7 +11946,7 @@
         <v>31</v>
       </c>
       <c r="E13" s="4">
-        <v>159</v>
+        <v>94.5</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>11</v>
@@ -12154,7 +12154,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3652</v>
+        <v>3655</v>
       </c>
       <c r="B18" s="4">
         <v>89.9</v>
@@ -12178,7 +12178,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="J18" s="4">
         <v>0.9</v>
@@ -12187,7 +12187,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>3639</v>
+        <v>11</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>11</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27AB99A-2C06-4D0B-A2CA-0E3ACBE5725F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{409B2FD2-AA82-49D6-B5B8-FB46C6E110D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="3656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="3655">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -10949,9 +10949,6 @@
   </si>
   <si>
     <t>Velocidad Mínima</t>
-  </si>
-  <si>
-    <t>Dos (2)</t>
   </si>
   <si>
     <t>Un (1)</t>
@@ -11380,8 +11377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11412,7 +11409,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3636</v>
@@ -11424,7 +11421,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>4</v>
@@ -11436,16 +11433,16 @@
         <v>6</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>3640</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>3641</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>3642</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -11474,7 +11471,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>11</v>
@@ -11518,7 +11515,7 @@
         <v>14</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="J3" s="4" t="s">
         <v>11</v>
@@ -11562,7 +11559,7 @@
         <v>14</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="J4" s="4">
         <v>10.9</v>
@@ -11571,7 +11568,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>3639</v>
+        <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>11</v>
@@ -11606,7 +11603,7 @@
         <v>14</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>11</v>
@@ -11618,7 +11615,7 @@
         <v>11</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>3639</v>
+        <v>11</v>
       </c>
       <c r="N5" s="4">
         <v>10</v>
@@ -11650,7 +11647,7 @@
         <v>14</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="J6" s="4">
         <v>30.9</v>
@@ -11694,7 +11691,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>11</v>
@@ -11738,7 +11735,7 @@
         <v>11</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>11</v>
@@ -11782,7 +11779,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>11</v>
@@ -11879,7 +11876,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>3639</v>
+        <v>11</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>11</v>
@@ -12110,7 +12107,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="B17" s="4">
         <v>69</v>
@@ -12154,7 +12151,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B18" s="4">
         <v>89.9</v>
@@ -12178,7 +12175,7 @@
         <v>14</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="J18" s="4">
         <v>0.9</v>
@@ -12198,7 +12195,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B19" s="4">
         <v>109</v>
@@ -12222,7 +12219,7 @@
         <v>11</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="J19" s="4">
         <v>20.9</v>
@@ -12231,7 +12228,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>11</v>
@@ -12242,7 +12239,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B20" s="4">
         <v>99</v>
@@ -12266,7 +12263,7 @@
         <v>11</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>11</v>
@@ -12275,7 +12272,7 @@
         <v>60.9</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>11</v>
@@ -12286,7 +12283,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B21" s="4">
         <v>109</v>
@@ -12310,7 +12307,7 @@
         <v>11</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>11</v>
@@ -12319,7 +12316,7 @@
         <v>70.900000000000006</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>11</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2588F2-5A2A-47D8-9769-81DC51F772E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2FBEF0-E531-4989-83C7-2E01C8E86BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -10987,21 +10987,12 @@
     <t>INTERNET</t>
   </si>
   <si>
-    <t>INTERNET+TV</t>
-  </si>
-  <si>
     <t>INTERNET+EQUIPOS</t>
   </si>
   <si>
     <t>INTERNET+PROMOCION</t>
   </si>
   <si>
-    <t>INTERNET+PROMOCION+TV</t>
-  </si>
-  <si>
-    <t>INTERNET +PROMOCION+TV+EQUIPOS</t>
-  </si>
-  <si>
     <t>INTERNET +PROMOCION+DGO+EQUIPOS</t>
   </si>
   <si>
@@ -11018,6 +11009,15 @@
   </si>
   <si>
     <t>INTERNET+FONO</t>
+  </si>
+  <si>
+    <t>INTERNET +PROMOCION+WINTV+EQUIPOS</t>
+  </si>
+  <si>
+    <t>INTERNET+PROMOCION+WINTV</t>
+  </si>
+  <si>
+    <t>INTERNET+WINTV</t>
   </si>
 </sst>
 </file>
@@ -11395,7 +11395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -11506,7 +11506,7 @@
         <v>10</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -11553,7 +11553,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>3653</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11600,7 +11600,7 @@
         <v>10</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -11647,7 +11647,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>3654</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -11741,7 +11741,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11788,7 +11788,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -11929,7 +11929,7 @@
         <v>10</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -11976,7 +11976,7 @@
         <v>10</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -12122,7 +12122,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>3657</v>
+        <v>3654</v>
       </c>
       <c r="B16" s="4">
         <v>89</v>
@@ -12169,7 +12169,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>3658</v>
+        <v>3655</v>
       </c>
       <c r="B17" s="4">
         <v>99</v>
@@ -12216,7 +12216,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="B18" s="4">
         <v>129</v>
@@ -12263,7 +12263,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>3656</v>
+        <v>3653</v>
       </c>
       <c r="B19" s="4">
         <v>79</v>
@@ -12305,7 +12305,7 @@
         <v>10</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>3660</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -12352,7 +12352,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>3650</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -12399,7 +12399,7 @@
         <v>10</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>3654</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -12446,7 +12446,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -12493,7 +12493,7 @@
         <v>10</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2FBEF0-E531-4989-83C7-2E01C8E86BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02104E-3F08-4D0F-AB9A-9D466A89DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3660">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -10993,9 +10993,6 @@
     <t>INTERNET+PROMOCION</t>
   </si>
   <si>
-    <t>INTERNET +PROMOCION+DGO+EQUIPOS</t>
-  </si>
-  <si>
     <t>WIN 350 PROV + FONO</t>
   </si>
   <si>
@@ -11008,16 +11005,16 @@
     <t>WIN PRO L 1000 PROV</t>
   </si>
   <si>
-    <t>INTERNET+FONO</t>
-  </si>
-  <si>
-    <t>INTERNET +PROMOCION+WINTV+EQUIPOS</t>
-  </si>
-  <si>
     <t>INTERNET+PROMOCION+WINTV</t>
   </si>
   <si>
     <t>INTERNET+WINTV</t>
+  </si>
+  <si>
+    <t>INTERNET+PROMOCION+WINTV+EQUIPOS</t>
+  </si>
+  <si>
+    <t>INTERNET+PROMOCION+DGO+EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -11396,7 +11393,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11553,7 +11550,7 @@
         <v>10</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -11741,7 +11738,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>3652</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11788,7 +11785,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>3652</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -12122,7 +12119,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="B16" s="4">
         <v>89</v>
@@ -12169,7 +12166,7 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="B17" s="4">
         <v>99</v>
@@ -12216,7 +12213,7 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="B18" s="4">
         <v>129</v>
@@ -12263,7 +12260,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="B19" s="4">
         <v>79</v>
@@ -12305,7 +12302,7 @@
         <v>10</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>3657</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -12352,7 +12349,7 @@
         <v>10</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>3660</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -12446,7 +12443,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>3652</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -12493,7 +12490,7 @@
         <v>10</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>3652</v>
+        <v>3659</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B02104E-3F08-4D0F-AB9A-9D466A89DD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9367B740-FDB3-4488-9CA9-73CD18CFF1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11014,7 +11014,7 @@
     <t>INTERNET+PROMOCION+WINTV+EQUIPOS</t>
   </si>
   <si>
-    <t>INTERNET+PROMOCION+DGO+EQUIPOS</t>
+    <t>INTERNETPROMOCION+DGO+EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -11393,7 +11393,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9367B740-FDB3-4488-9CA9-73CD18CFF1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB07D8-FD4B-4D44-8058-5CB10747AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11392,8 +11392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12366,7 +12366,7 @@
         <v>28</v>
       </c>
       <c r="E21" s="4">
-        <v>64.95</v>
+        <v>64.05</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>8</v>
@@ -12381,7 +12381,7 @@
         <v>3637</v>
       </c>
       <c r="J21" s="4">
-        <v>20.9</v>
+        <v>0.9</v>
       </c>
       <c r="K21" s="4" t="s">
         <v>8</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AB07D8-FD4B-4D44-8058-5CB10747AFEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30F2BC7-6FD3-4CBA-89CD-1E8E34D7A75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11392,8 +11392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12319,7 +12319,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="4">
-        <v>49.05</v>
+        <v>44.05</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>22</v>
@@ -12346,7 +12346,7 @@
         <v>8</v>
       </c>
       <c r="N20" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>3657</v>
@@ -12393,7 +12393,7 @@
         <v>8</v>
       </c>
       <c r="N21" s="4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="O21" s="4" t="s">
         <v>3658</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A30F2BC7-6FD3-4CBA-89CD-1E8E34D7A75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26210443-AE49-4978-A51A-2FF37F3033CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3659">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11006,9 +11006,6 @@
   </si>
   <si>
     <t>INTERNET+PROMOCION+WINTV</t>
-  </si>
-  <si>
-    <t>INTERNET+WINTV</t>
   </si>
   <si>
     <t>INTERNET+PROMOCION+WINTV+EQUIPOS</t>
@@ -11392,8 +11389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11644,7 +11641,7 @@
         <v>10</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -11738,7 +11735,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -11785,7 +11782,7 @@
         <v>10</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -12349,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="O20" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -12396,7 +12393,7 @@
         <v>1</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -12443,7 +12440,7 @@
         <v>10</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -12490,7 +12487,7 @@
         <v>10</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26210443-AE49-4978-A51A-2FF37F3033CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE97C02-07AA-4403-9E76-7868CFFB48C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3660">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11012,6 +11012,9 @@
   </si>
   <si>
     <t>INTERNETPROMOCION+DGO+EQUIPOS</t>
+  </si>
+  <si>
+    <t>INTERNET+PROMOCION+EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -11389,8 +11392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11688,7 +11691,7 @@
         <v>10</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>3649</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -11829,7 +11832,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>3649</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE97C02-07AA-4403-9E76-7868CFFB48C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFDF61E-76A6-4698-B972-08A81D4B8D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3659">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11012,9 +11012,6 @@
   </si>
   <si>
     <t>INTERNETPROMOCION+DGO+EQUIPOS</t>
-  </si>
-  <si>
-    <t>INTERNET+PROMOCION+EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -11044,12 +11041,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -11064,7 +11067,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11074,6 +11077,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11392,8 +11398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11647,50 +11653,50 @@
         <v>3657</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="5">
         <v>139</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>69.5</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>3640</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>3634</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="5">
         <v>10</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>3651</v>
       </c>
     </row>
@@ -11832,7 +11838,7 @@
         <v>10</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>3659</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFDF61E-76A6-4698-B972-08A81D4B8D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A698ADE-EF93-4618-9E19-6A2F3CB2339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3660">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11012,6 +11012,9 @@
   </si>
   <si>
     <t>INTERNETPROMOCION+DGO+EQUIPOS</t>
+  </si>
+  <si>
+    <t>INTERNETPROMOCION</t>
   </si>
 </sst>
 </file>
@@ -11398,8 +11401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11885,7 +11888,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>3649</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A698ADE-EF93-4618-9E19-6A2F3CB2339A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B59EEEAE-C9E3-4117-81AE-03D5E9EE602B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7627" uniqueCount="3659">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11012,9 +11012,6 @@
   </si>
   <si>
     <t>INTERNETPROMOCION+DGO+EQUIPOS</t>
-  </si>
-  <si>
-    <t>INTERNETPROMOCION</t>
   </si>
 </sst>
 </file>
@@ -11402,7 +11399,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11888,7 +11885,7 @@
         <v>10</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>3659</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C35222-01C1-4A1F-A03E-9875B3DD1E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB994F-E7F2-4011-80A4-0E9202B04D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7647" uniqueCount="3644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7659" uniqueCount="3646">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -10967,13 +10967,20 @@
   </si>
   <si>
     <t>INTERNETPROMOCION+DGO</t>
+  </si>
+  <si>
+    <t>INTERNET+WINTV</t>
+  </si>
+  <si>
+    <t>INTERNET+DGO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;S/&quot;\ #,##0;[Red]\-&quot;S/&quot;\ #,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;S/&quot;\ #,##0.00;[Red]\-&quot;S/&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -11025,7 +11032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11044,6 +11051,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11362,8 +11372,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11434,7 +11444,7 @@
       <c r="A2" s="4" t="s">
         <v>3608</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -11470,18 +11480,18 @@
       <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="4">
-        <v>0.45</v>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3609</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="8">
         <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -11517,18 +11527,18 @@
       <c r="M3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="4">
-        <v>4.45</v>
+      <c r="N3" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3610</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="8">
         <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -11564,18 +11574,18 @@
       <c r="M4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="4">
-        <v>12.95</v>
+      <c r="N4" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3611</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="8">
         <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
@@ -11611,18 +11621,18 @@
       <c r="M5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="4">
-        <v>17.95</v>
+      <c r="N5" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>3612</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="8">
         <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -11658,18 +11668,18 @@
       <c r="M6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N6" s="6">
-        <v>34.5</v>
+      <c r="N6" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>3613</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="8">
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -11705,18 +11715,18 @@
       <c r="M7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="6">
-        <v>38</v>
+      <c r="N7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3614</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
@@ -11752,18 +11762,18 @@
       <c r="M8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="4">
-        <v>0.45</v>
+      <c r="N8" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3615</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="8">
         <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
@@ -11799,18 +11809,18 @@
       <c r="M9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="4">
-        <v>4.45</v>
+      <c r="N9" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>3616</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="8">
         <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -11846,18 +11856,18 @@
       <c r="M10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N10" s="4">
-        <v>12.95</v>
+      <c r="N10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>3617</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="8">
         <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
@@ -11893,18 +11903,18 @@
       <c r="M11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="4">
-        <v>17.95</v>
+      <c r="N11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>3605</v>
+        <v>3644</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>3618</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="8">
         <v>109</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -11940,18 +11950,18 @@
       <c r="M12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N12" s="6">
-        <v>34.5</v>
+      <c r="N12" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>3619</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="8">
         <v>109</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -11987,18 +11997,18 @@
       <c r="M13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="N13" s="6">
-        <v>38</v>
+      <c r="N13" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>3643</v>
+        <v>3645</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>3620</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="8">
         <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
@@ -12045,7 +12055,7 @@
       <c r="A15" s="4" t="s">
         <v>3621</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="8">
         <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -12092,7 +12102,7 @@
       <c r="A16" s="4" t="s">
         <v>3622</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="8">
         <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -12139,7 +12149,7 @@
       <c r="A17" s="4" t="s">
         <v>3623</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="8">
         <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -12186,7 +12196,7 @@
       <c r="A18" s="6" t="s">
         <v>3624</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="8">
         <v>119</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -12233,7 +12243,7 @@
       <c r="A19" s="6" t="s">
         <v>3625</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="8">
         <v>119</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -12280,7 +12290,7 @@
       <c r="A20" s="4" t="s">
         <v>3626</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="8">
         <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -12327,7 +12337,7 @@
       <c r="A21" s="4" t="s">
         <v>3627</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="8">
         <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -12374,7 +12384,7 @@
       <c r="A22" s="4" t="s">
         <v>3628</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="8">
         <v>139</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -12421,7 +12431,7 @@
       <c r="A23" s="4" t="s">
         <v>3629</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="8">
         <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -12468,7 +12478,7 @@
       <c r="A24" s="6" t="s">
         <v>3630</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="8">
         <v>139</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -12515,7 +12525,7 @@
       <c r="A25" s="6" t="s">
         <v>3631</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="8">
         <v>139</v>
       </c>
       <c r="C25" s="6" t="s">

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869F8D41-9478-4FDE-AF43-75E836AFE734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C331617-3300-4D1B-B719-CB5FF3D9E886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -10975,7 +10975,7 @@
     <t>WINTVL1</t>
   </si>
   <si>
-    <t>WINTVPLUS</t>
+    <t>PLUS</t>
   </si>
 </sst>
 </file>
@@ -11376,7 +11376,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11533,7 +11533,7 @@
       <c r="L3" s="4">
         <v>9.9</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" t="s">
         <v>6</v>
       </c>
       <c r="N3" s="4" t="s">
@@ -11583,7 +11583,7 @@
       <c r="L4" s="4">
         <v>25.9</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="4" t="s">
@@ -11633,7 +11633,7 @@
       <c r="L5" s="4">
         <v>35.9</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" t="s">
         <v>6</v>
       </c>
       <c r="N5" s="4" t="s">
@@ -11683,7 +11683,7 @@
       <c r="L6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" t="s">
         <v>6</v>
       </c>
       <c r="N6" s="4" t="s">
@@ -11733,7 +11733,7 @@
       <c r="L7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" t="s">
         <v>6</v>
       </c>
       <c r="N7" s="6" t="s">
@@ -11833,7 +11833,7 @@
       <c r="L9" s="4">
         <v>9.9</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" t="s">
         <v>6</v>
       </c>
       <c r="N9" s="4" t="s">

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4511AA38-EFD6-4742-8F6F-AACE1485040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F8676-815C-4CF0-BF0A-4989F071CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11173,7 +11173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11195,9 +11195,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -11516,8 +11513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12498,7 +12495,7 @@
         <v>3654</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>3657</v>
+        <v>3658</v>
       </c>
       <c r="E20" s="5">
         <v>69.5</v>
@@ -12794,7 +12791,7 @@
       <c r="B26" s="8">
         <v>129</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="D26" s="4" t="s">
@@ -12844,7 +12841,7 @@
       <c r="B27" s="8">
         <v>129</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="D27" s="4" t="s">
@@ -12894,7 +12891,7 @@
       <c r="B28" s="8">
         <v>129</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -12944,7 +12941,7 @@
       <c r="B29" s="8">
         <v>129</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -12994,7 +12991,7 @@
       <c r="B30" s="8">
         <v>129</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -13044,7 +13041,7 @@
       <c r="B31" s="8">
         <v>129</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="4" t="s">
         <v>3679</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -14220,6 +14217,9 @@
       </c>
       <c r="K54" s="4" t="s">
         <v>6</v>
+      </c>
+      <c r="L54" s="4">
+        <v>0.9</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>6</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3F8676-815C-4CF0-BF0A-4989F071CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566BC8A5-A274-48D0-87A1-14A1614253D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8042" uniqueCount="3693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="3693">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11513,8 +11513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14268,6 +14268,9 @@
       <c r="K55" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="L55" s="4">
+        <v>0.9</v>
+      </c>
       <c r="M55" s="4" t="s">
         <v>6</v>
       </c>
@@ -14324,8 +14327,8 @@
       <c r="N56" s="4" t="s">
         <v>3605</v>
       </c>
-      <c r="O56" s="4">
-        <v>60.9</v>
+      <c r="O56" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="s">
         <v>3626</v>
@@ -14374,8 +14377,8 @@
       <c r="N57" s="4" t="s">
         <v>3605</v>
       </c>
-      <c r="O57" s="4">
-        <v>50.9</v>
+      <c r="O57" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="P57" s="4" t="s">
         <v>3626</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566BC8A5-A274-48D0-87A1-14A1614253D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5239C-4291-4060-8BE5-753791F80D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11513,8 +11513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G40" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N57" sqref="N57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14309,19 +14309,19 @@
       <c r="H56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="I56" s="6" t="s">
         <v>3609</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="6">
         <v>60.9</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M56" s="4" t="s">
+      <c r="M56" t="s">
         <v>6</v>
       </c>
       <c r="N56" s="4" t="s">
@@ -14330,7 +14330,7 @@
       <c r="O56" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P56" s="4" t="s">
+      <c r="P56" s="6" t="s">
         <v>3626</v>
       </c>
     </row>
@@ -14359,19 +14359,19 @@
       <c r="H57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I57" s="4" t="s">
+      <c r="I57" s="6" t="s">
         <v>3610</v>
       </c>
       <c r="J57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="6">
         <v>50.9</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M57" s="4" t="s">
+      <c r="M57" t="s">
         <v>6</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -14380,7 +14380,7 @@
       <c r="O57" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="P57" s="4" t="s">
+      <c r="P57" s="6" t="s">
         <v>3626</v>
       </c>
     </row>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D5239C-4291-4060-8BE5-753791F80D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B73EAA-8D65-492B-A7FD-F61EE39461D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="3693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="3694">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11114,6 +11114,9 @@
   </si>
   <si>
     <t>EV 1000 Mbps + DGO F NOV25</t>
+  </si>
+  <si>
+    <t>INTERNETPROMOCION2+DGO+EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -11513,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N57" sqref="N57"/>
+    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14331,7 +14334,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>3626</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -14381,7 +14384,7 @@
         <v>6</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>3626</v>
+        <v>3693</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B73EAA-8D65-492B-A7FD-F61EE39461D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971BB158-9E69-4DE4-A6FE-F530A7B245E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971BB158-9E69-4DE4-A6FE-F530A7B245E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E70EF-2868-45B2-98DD-E74B985614A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8044" uniqueCount="3694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="3694">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -10894,9 +10894,6 @@
     <t>Tipo De Contrato</t>
   </si>
   <si>
-    <t>INTERNET</t>
-  </si>
-  <si>
     <t>WIN 350 PROV + FONO</t>
   </si>
   <si>
@@ -11117,6 +11114,9 @@
   </si>
   <si>
     <t>INTERNETPROMOCION2+DGO+EQUIPOS</t>
+  </si>
+  <si>
+    <t>INTERNET+PROMOCION</t>
   </si>
 </sst>
 </file>
@@ -11516,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11572,16 +11572,16 @@
         <v>5</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>3664</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>3665</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>3666</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3606</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>3618</v>
@@ -11589,16 +11589,16 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="B2" s="8">
         <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>6</v>
@@ -11613,7 +11613,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J2" s="4">
         <v>0.9</v>
@@ -11634,21 +11634,21 @@
         <v>6</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="B3" s="8">
         <v>99</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>6</v>
@@ -11663,7 +11663,7 @@
         <v>6</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J3" s="4">
         <v>9.9</v>
@@ -11684,21 +11684,21 @@
         <v>6</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="B4" s="8">
         <v>99</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>6</v>
@@ -11734,21 +11734,21 @@
         <v>6</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="B5" s="8">
         <v>99</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -11784,21 +11784,21 @@
         <v>6</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="B6" s="8">
         <v>99</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>6</v>
@@ -11834,21 +11834,21 @@
         <v>6</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="B7" s="8">
         <v>99</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>6</v>
@@ -11884,21 +11884,21 @@
         <v>6</v>
       </c>
       <c r="P7" s="6" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="B8" s="8">
         <v>109</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>6</v>
@@ -11913,7 +11913,7 @@
         <v>6</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J8" s="4">
         <v>0.9</v>
@@ -11934,21 +11934,21 @@
         <v>6</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="B9" s="8">
         <v>109</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
@@ -11963,7 +11963,7 @@
         <v>6</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J9" s="4">
         <v>9.9</v>
@@ -11984,21 +11984,21 @@
         <v>6</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="B10" s="8">
         <v>109</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
@@ -12034,21 +12034,21 @@
         <v>6</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="B11" s="8">
         <v>109</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
@@ -12084,21 +12084,21 @@
         <v>6</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="B12" s="8">
         <v>109</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>6</v>
@@ -12134,21 +12134,21 @@
         <v>6</v>
       </c>
       <c r="P12" s="6" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="B13" s="8">
         <v>109</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>6</v>
@@ -12184,21 +12184,21 @@
         <v>6</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="B14" s="8">
         <v>119</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E14" s="5">
         <v>59.5</v>
@@ -12213,7 +12213,7 @@
         <v>6</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J14" s="4">
         <v>0.9</v>
@@ -12234,21 +12234,21 @@
         <v>0.45</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="B15" s="8">
         <v>119</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E15" s="5">
         <v>59.5</v>
@@ -12263,7 +12263,7 @@
         <v>6</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J15" s="4">
         <v>9.9</v>
@@ -12284,21 +12284,21 @@
         <v>4.45</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="B16" s="8">
         <v>119</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E16" s="5">
         <v>59.5</v>
@@ -12334,21 +12334,21 @@
         <v>12.95</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="B17" s="8">
         <v>119</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E17" s="5">
         <v>59.5</v>
@@ -12384,21 +12384,21 @@
         <v>17.95</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="B18" s="8">
         <v>119</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E18" s="7">
         <v>59.5</v>
@@ -12434,21 +12434,21 @@
         <v>34.5</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="B19" s="8">
         <v>119</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E19" s="7">
         <v>59.5</v>
@@ -12484,21 +12484,21 @@
         <v>38</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="B20" s="8">
         <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E20" s="5">
         <v>69.5</v>
@@ -12513,7 +12513,7 @@
         <v>6</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J20" s="4">
         <v>0.9</v>
@@ -12534,21 +12534,21 @@
         <v>0.45</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="B21" s="8">
         <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E21" s="5">
         <v>69.5</v>
@@ -12563,7 +12563,7 @@
         <v>6</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J21" s="4">
         <v>9.9</v>
@@ -12584,21 +12584,21 @@
         <v>4.45</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="B22" s="8">
         <v>139</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E22" s="5">
         <v>69.5</v>
@@ -12634,21 +12634,21 @@
         <v>12.95</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="B23" s="8">
         <v>139</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E23" s="5">
         <v>69.5</v>
@@ -12684,21 +12684,21 @@
         <v>17.95</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="B24" s="8">
         <v>139</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E24" s="7">
         <v>69.5</v>
@@ -12734,21 +12734,21 @@
         <v>34.5</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="B25" s="8">
         <v>139</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E25" s="7">
         <v>69.5</v>
@@ -12784,21 +12784,21 @@
         <v>38</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="B26" s="8">
         <v>129</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>3679</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>3680</v>
       </c>
       <c r="E26" s="5">
         <v>64.5</v>
@@ -12813,7 +12813,7 @@
         <v>6</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J26" s="4">
         <v>0.9</v>
@@ -12834,21 +12834,21 @@
         <v>0.45</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="B27" s="8">
         <v>129</v>
       </c>
       <c r="C27" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>3679</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>3680</v>
       </c>
       <c r="E27" s="5">
         <v>64.5</v>
@@ -12863,7 +12863,7 @@
         <v>6</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J27" s="4">
         <v>9.9</v>
@@ -12884,21 +12884,21 @@
         <v>4.45</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="B28" s="8">
         <v>129</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>3679</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>3680</v>
       </c>
       <c r="E28" s="5">
         <v>64.5</v>
@@ -12934,21 +12934,21 @@
         <v>12.95</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="B29" s="8">
         <v>129</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>3679</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>3680</v>
       </c>
       <c r="E29" s="5">
         <v>64.5</v>
@@ -12984,21 +12984,21 @@
         <v>17.95</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="B30" s="8">
         <v>129</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>3679</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>3680</v>
       </c>
       <c r="E30" s="5">
         <v>64.5</v>
@@ -13034,21 +13034,21 @@
         <v>34.5</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="B31" s="8">
         <v>129</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>3678</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>3679</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>3680</v>
       </c>
       <c r="E31" s="5">
         <v>64.5</v>
@@ -13084,21 +13084,21 @@
         <v>38</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="B32" s="8">
         <v>159</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E32" s="5">
         <v>79.5</v>
@@ -13113,7 +13113,7 @@
         <v>6</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J32" s="4">
         <v>0.9</v>
@@ -13134,21 +13134,21 @@
         <v>0.45</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="B33" s="8">
         <v>159</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E33" s="5">
         <v>79.5</v>
@@ -13163,7 +13163,7 @@
         <v>6</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J33" s="4">
         <v>9.9</v>
@@ -13184,21 +13184,21 @@
         <v>4.45</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="B34" s="8">
         <v>159</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E34" s="5">
         <v>79.5</v>
@@ -13234,21 +13234,21 @@
         <v>12.95</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="B35" s="8">
         <v>159</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E35" s="5">
         <v>79.5</v>
@@ -13284,21 +13284,21 @@
         <v>17.95</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
       <c r="B36" s="8">
         <v>159</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E36" s="5">
         <v>79.5</v>
@@ -13334,21 +13334,21 @@
         <v>34.5</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
       <c r="B37" s="8">
         <v>159</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E37" s="5">
         <v>79.5</v>
@@ -13384,21 +13384,21 @@
         <v>38</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="B38" s="4">
         <v>119</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -13413,7 +13413,7 @@
         <v>6</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J38" s="4">
         <v>0.9</v>
@@ -13434,21 +13434,21 @@
         <v>0.45</v>
       </c>
       <c r="P38" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="B39" s="4">
         <v>119</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -13463,7 +13463,7 @@
         <v>6</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J39" s="4">
         <v>9.9</v>
@@ -13484,21 +13484,21 @@
         <v>4.45</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="B40" s="4">
         <v>119</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E40" s="5">
         <v>1</v>
@@ -13534,21 +13534,21 @@
         <v>12.95</v>
       </c>
       <c r="P40" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="B41" s="4">
         <v>119</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E41" s="5">
         <v>1</v>
@@ -13584,21 +13584,21 @@
         <v>17.95</v>
       </c>
       <c r="P41" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="B42" s="4">
         <v>119</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E42" s="5">
         <v>1</v>
@@ -13634,21 +13634,21 @@
         <v>34.5</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="B43" s="4">
         <v>119</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="E43" s="5">
         <v>1</v>
@@ -13684,18 +13684,18 @@
         <v>38</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="B44" s="4">
         <v>139</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>3657</v>
@@ -13713,7 +13713,7 @@
         <v>6</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="J44" s="4">
         <v>0.9</v>
@@ -13734,21 +13734,21 @@
         <v>0.45</v>
       </c>
       <c r="P44" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="B45" s="4">
         <v>139</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -13763,7 +13763,7 @@
         <v>6</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="J45" s="4">
         <v>9.9</v>
@@ -13784,21 +13784,21 @@
         <v>4.45</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="B46" s="4">
         <v>139</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E46" s="5">
         <v>1</v>
@@ -13834,21 +13834,21 @@
         <v>12.95</v>
       </c>
       <c r="P46" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="B47" s="4">
         <v>139</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -13884,21 +13884,21 @@
         <v>17.95</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>3691</v>
+        <v>3690</v>
       </c>
       <c r="B48" s="4">
         <v>139</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E48" s="5">
         <v>1</v>
@@ -13934,21 +13934,21 @@
         <v>34.5</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>3692</v>
+        <v>3691</v>
       </c>
       <c r="B49" s="4">
         <v>139</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -13984,12 +13984,12 @@
         <v>38</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="B50" s="4">
         <v>89</v>
@@ -14034,12 +14034,12 @@
         <v>6</v>
       </c>
       <c r="P50" s="4" t="s">
-        <v>3619</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
       <c r="B51" s="4">
         <v>99</v>
@@ -14084,12 +14084,12 @@
         <v>6</v>
       </c>
       <c r="P51" s="4" t="s">
-        <v>3619</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
       <c r="B52" s="4">
         <v>129</v>
@@ -14134,12 +14134,12 @@
         <v>6</v>
       </c>
       <c r="P52" s="4" t="s">
-        <v>3619</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
       <c r="B53" s="4">
         <v>79</v>
@@ -14184,7 +14184,7 @@
         <v>6</v>
       </c>
       <c r="P53" s="4" t="s">
-        <v>3619</v>
+        <v>3693</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -14230,11 +14230,11 @@
       <c r="N54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O54" s="4">
-        <v>0.9</v>
+      <c r="O54" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -14280,11 +14280,11 @@
       <c r="N55" s="4" t="s">
         <v>3605</v>
       </c>
-      <c r="O55" s="4">
-        <v>0.9</v>
+      <c r="O55" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -14334,7 +14334,7 @@
         <v>6</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -14384,7 +14384,7 @@
         <v>6</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
     </row>
   </sheetData>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337E70EF-2868-45B2-98DD-E74B985614A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E5CA3E-CB49-449F-9B94-CC3D274C0779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11516,7 +11516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E5CA3E-CB49-449F-9B94-CC3D274C0779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D2150-4A7B-4882-97A3-A8A1C57C57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8046" uniqueCount="3694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="3694">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11516,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14221,8 +14221,8 @@
       <c r="K54" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L54" s="4">
-        <v>0.9</v>
+      <c r="L54" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>6</v>
@@ -14271,8 +14271,8 @@
       <c r="K55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L55" s="4">
-        <v>0.9</v>
+      <c r="L55" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>6</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337D2150-4A7B-4882-97A3-A8A1C57C57CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5FAED-1B93-4FC8-9508-BCF5A1A7FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -11516,8 +11516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14215,11 +14215,11 @@
       <c r="I54" s="4" t="s">
         <v>3616</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K54" s="4">
         <v>0.9</v>
-      </c>
-      <c r="K54" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="L54" s="4" t="s">
         <v>6</v>
@@ -14265,11 +14265,11 @@
       <c r="I55" s="4" t="s">
         <v>3608</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K55" s="4">
         <v>0.9</v>
-      </c>
-      <c r="K55" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="L55" s="4" t="s">
         <v>6</v>

--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BELFECOM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FA5FAED-1B93-4FC8-9508-BCF5A1A7FB91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0120CF-8596-4186-A2DD-D8BBA4A93AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{31C04DF6-E76A-4C8A-88FF-4541BAF4E7C7}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="3694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8048" uniqueCount="3696">
   <si>
     <t>Nombre del plan tarifario</t>
   </si>
@@ -11117,6 +11117,12 @@
   </si>
   <si>
     <t>INTERNET+PROMOCION</t>
+  </si>
+  <si>
+    <t>INTERNET2+PROMOCION+WINTV</t>
+  </si>
+  <si>
+    <t>INTERNET2+PROMOCION+WINTV+EQUIPOS</t>
   </si>
 </sst>
 </file>
@@ -11516,8 +11522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA22E84-0AE5-4D2D-890A-43B5D422C77A}">
   <dimension ref="A1:P57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H31" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView tabSelected="1" topLeftCell="J37" workbookViewId="0">
+      <selection activeCell="O66" sqref="O66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12281,7 +12287,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="4">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>3623</v>
@@ -12581,7 +12587,7 @@
         <v>3605</v>
       </c>
       <c r="O21" s="4">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="P21" s="4" t="s">
         <v>3624</v>
@@ -12881,7 +12887,7 @@
         <v>3605</v>
       </c>
       <c r="O27" s="4">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="P27" s="4" t="s">
         <v>3623</v>
@@ -13181,7 +13187,7 @@
         <v>3605</v>
       </c>
       <c r="O33" s="4">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="P33" s="4" t="s">
         <v>3624</v>
@@ -13481,7 +13487,7 @@
         <v>3605</v>
       </c>
       <c r="O39" s="4">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="P39" s="4" t="s">
         <v>3624</v>
@@ -13781,7 +13787,7 @@
         <v>3605</v>
       </c>
       <c r="O45" s="4">
-        <v>4.45</v>
+        <v>4.95</v>
       </c>
       <c r="P45" s="4" t="s">
         <v>3624</v>
@@ -14234,7 +14240,7 @@
         <v>6</v>
       </c>
       <c r="P54" s="4" t="s">
-        <v>3623</v>
+        <v>3694</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -14284,7 +14290,7 @@
         <v>6</v>
       </c>
       <c r="P55" s="4" t="s">
-        <v>3624</v>
+        <v>3695</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
